--- a/biology/Zoologie/Chiropterotriton_terrestris/Chiropterotriton_terrestris.xlsx
+++ b/biology/Zoologie/Chiropterotriton_terrestris/Chiropterotriton_terrestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiropterotriton terrestris est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiropterotriton terrestris est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre dans le nord-ouest de l'Hidalgo, à environ 1 640 d'altitude, voire à une altitude un peu supérieure.
-Elle pourrait également être présente dans le Querétaro[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans le nord-ouest de l'Hidalgo, à environ 1 640 d'altitude, voire à une altitude un peu supérieure.
+Elle pourrait également être présente dans le Querétaro.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 55,5 mm de longueur totale dont 26,5 mm de longueur standard et 29 mm de queue[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 55,5 mm de longueur totale dont 26,5 mm de longueur standard et 29 mm de queue.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taylor, 1941 : Herpetological miscellany, No. II. The University of Kansas science bulletin, vol. 27, no 1, p. 105-139 (texte intégral).</t>
         </is>
